--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC1809\Desktop\Python\PythonApplication1\PythonApplication1\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC1809\Desktop\Git\kgEngine\PythonApplication1\PythonApplication1\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -34,18 +33,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sphere2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sphere1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Square</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>高さ(y)</t>
     <rPh sb="0" eb="1">
       <t>タカ</t>
@@ -53,16 +40,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>奥行き(z)</t>
-    <rPh sb="0" eb="2">
-      <t>オクユキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>幅(x)</t>
     <rPh sb="0" eb="1">
       <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅(z)</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体積(cm3)</t>
+    <rPh sb="0" eb="2">
+      <t>タイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sphere2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sphere1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tama</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球体か？(1でtrue、0でfalse)</t>
+    <rPh sb="0" eb="2">
+      <t>キュウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -102,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,17 +142,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,34 +461,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -456,10 +506,17 @@
       <c r="D2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <f>B2*C2*D2</f>
+        <v>125</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -470,10 +527,17 @@
       <c r="D3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">B3*C3*D3</f>
+        <v>1000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
@@ -484,74 +548,96 @@
       <c r="D4" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>693</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4080</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -626,5 +712,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -47,13 +47,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>幅(z)</t>
-    <rPh sb="0" eb="1">
-      <t>ハバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>体積(cm3)</t>
     <rPh sb="0" eb="2">
       <t>タイセキ</t>
@@ -61,26 +54,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sphere2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sphere1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>square</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tama</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>球体か？(1でtrue、0でfalse)</t>
     <rPh sb="0" eb="2">
       <t>キュウタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥行(z)</t>
+    <rPh sb="0" eb="2">
+      <t>オクユキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -484,13 +484,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -498,25 +498,25 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <f>B2*C2*D2</f>
-        <v>125</v>
+        <v>336</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -532,25 +532,25 @@
         <v>1000</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>693</v>
+        <v>200</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -558,20 +558,20 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4080</v>
+        <v>3200</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>obox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>obox2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -81,6 +77,18 @@
   </si>
   <si>
     <t>obox4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -464,7 +472,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -495,7 +503,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -516,7 +524,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -528,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">B3*C3*D3</f>
+        <f t="shared" ref="E3:E7" si="0">B3*C3*D3</f>
         <v>1000</v>
       </c>
       <c r="F3" s="3">
@@ -537,7 +545,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -558,7 +566,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -578,16 +586,46 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -89,6 +89,16 @@
   </si>
   <si>
     <t>obox1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線分生成するかどうか</t>
+    <rPh sb="0" eb="2">
+      <t>センブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -469,19 +479,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +511,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -521,8 +535,11 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -542,8 +559,11 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -563,8 +583,11 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -584,8 +607,11 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -605,8 +631,11 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -626,56 +655,59 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -99,6 +99,10 @@
     <rPh sb="2" eb="4">
       <t>セイセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oboxpath1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -481,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -553,7 +557,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">B3*C3*D3</f>
+        <f t="shared" ref="E3:E8" si="0">B3*C3*D3</f>
         <v>1000</v>
       </c>
       <c r="F3" s="3">
@@ -660,10 +664,28 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>19584</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>oboxpath1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーションはあるかどうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ozunko</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -483,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -494,9 +502,10 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="8" max="10" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +527,11 @@
       <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -542,8 +554,11 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -557,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">B3*C3*D3</f>
+        <f t="shared" ref="E3:E9" si="0">B3*C3*D3</f>
         <v>1000</v>
       </c>
       <c r="F3" s="3">
@@ -566,8 +581,11 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -590,8 +608,11 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -614,8 +635,11 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -638,8 +662,11 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -662,8 +689,11 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -686,50 +716,74 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>ozunko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ohito</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -494,7 +498,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -572,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">B3*C3*D3</f>
+        <f t="shared" ref="E3:E10" si="0">B3*C3*D3</f>
         <v>1000</v>
       </c>
       <c r="F3" s="3">
@@ -748,10 +752,31 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -117,12 +117,40 @@
     <t>ohito</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>othumbtack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>othumbtack_blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>othumbtack_red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oeraser_blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oeraser_red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opencil_blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opencil_yellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +165,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Inherit"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,19 +534,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="31.625" customWidth="1"/>
     <col min="8" max="10" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -562,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -576,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">B3*C3*D3</f>
+        <f t="shared" ref="E3:E11" si="0">B3*C3*D3</f>
         <v>1000</v>
       </c>
       <c r="F3" s="3">
@@ -589,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -616,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -643,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -670,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -697,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -724,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -751,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -778,103 +815,274 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f>B11*C11*D11</f>
+        <v>180</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E17" si="1">B12*C12*D12</f>
+        <v>180</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <f t="shared" ref="E12:E23" si="2">B18*C18*D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -143,6 +143,34 @@
   </si>
   <si>
     <t>opencil_yellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>odomino_blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>odomino_red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>odomino_green</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>omatchstick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>osaikoro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>omagnet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>omouse</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -173,7 +201,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +210,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,46 +250,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -550,25 +573,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -576,18 +599,18 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2">
-        <f>B2*C2*D2</f>
-        <v>336</v>
+      <c r="E2" s="2">
+        <f>(B2+B2)*(C2+C2)*(D2+D2)</f>
+        <v>2688</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -603,18 +626,18 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">B3*C3*D3</f>
-        <v>1000</v>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E36" si="0">(B3+B3)*(C3+C3)*(D3+D3)</f>
+        <v>8000</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -630,18 +653,18 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>200</v>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>1600</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -657,18 +680,18 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>32</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>3200</v>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>25600</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -684,18 +707,18 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>32</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>6400</v>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>51200</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -711,18 +734,18 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>30</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>60</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>18000</v>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>144000</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -738,18 +761,18 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>24</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>34</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>24</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>19584</v>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>156672</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -765,18 +788,18 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>50</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>60</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>30</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>90000</v>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>720000</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -792,18 +815,18 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>40</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>4800</v>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>38400</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -816,21 +839,21 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>6</v>
       </c>
-      <c r="E11">
-        <f>B11*C11*D11</f>
-        <v>180</v>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>1440</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -843,21 +866,21 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>6</v>
       </c>
-      <c r="E12">
-        <f t="shared" ref="E12:E17" si="1">B12*C12*D12</f>
-        <v>180</v>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>1440</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -873,18 +896,18 @@
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>180</v>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>1440</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -900,18 +923,18 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>13</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>273</v>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>2184</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -927,18 +950,18 @@
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>13</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>273</v>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>2184</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -954,18 +977,18 @@
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>32</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>288</v>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>2304</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -981,18 +1004,18 @@
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>32</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>288</v>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>2304</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1005,88 +1028,813 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18">
-        <f t="shared" ref="E12:E23" si="2">B18*C18*D19</f>
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19">
-        <f t="shared" si="2"/>
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20">
-        <f t="shared" si="2"/>
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21">
-        <f t="shared" si="2"/>
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22">
-        <f t="shared" si="2"/>
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23">
-        <f t="shared" si="2"/>
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -171,6 +171,70 @@
   </si>
   <si>
     <t>omouse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ocockroach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oglass_yellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oglass_blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opetbottle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>osmartphone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ospoon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ofork</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oclock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oapple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oorange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>odaia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oemerald</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oruby</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>osapphire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>otablesquare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ochair</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -557,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -636,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E36" si="0">(B3+B3)*(C3+C3)*(D3+D3)</f>
+        <f t="shared" ref="E3:E40" si="0">(B3+B3)*(C3+C3)*(D3+D3)</f>
         <v>8000</v>
       </c>
       <c r="F3" s="3">
@@ -1129,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1217,174 +1281,446 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>1296</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>20736</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>11200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>20520</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2">
+        <v>25</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>21952</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="2">
+        <v>150</v>
+      </c>
+      <c r="C39" s="2">
+        <v>59</v>
+      </c>
+      <c r="D39" s="2">
+        <v>105</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>7434000</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2">
+        <v>90</v>
+      </c>
+      <c r="D40" s="2">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>1620000</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22118"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC1809\Desktop\Git\kgEngine\PythonApplication1\PythonApplication1\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD6F54BB-B888-45F5-A215-82DEC7D2502B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -33,6 +40,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>幅(x)</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>高さ(y)</t>
     <rPh sb="0" eb="1">
       <t>タカ</t>
@@ -40,9 +54,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>幅(x)</t>
-    <rPh sb="0" eb="1">
-      <t>ハバ</t>
+    <t>奥行(z)</t>
+    <rPh sb="0" eb="2">
+      <t>オクユキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -58,37 +72,6 @@
     <rPh sb="0" eb="2">
       <t>キュウタイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>奥行(z)</t>
-    <rPh sb="0" eb="2">
-      <t>オクユキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obox2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obox3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obox4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obox5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obox6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obox1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -102,14 +85,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>アニメーションはあるかどうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッシュコライダーにするかどうか</t>
+  </si>
+  <si>
+    <t>obox1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obox6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>oboxpath1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アニメーションはあるかどうか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ozunko</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -236,12 +246,23 @@
   <si>
     <t>ochair</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ocup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>otablesquare_board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -618,11 +639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -630,38 +651,43 @@
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="31.625" customWidth="1"/>
-    <col min="8" max="10" width="27.25" customWidth="1"/>
+    <col min="8" max="8" width="27.25" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>7</v>
@@ -685,10 +711,13 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
@@ -700,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E40" si="0">(B3+B3)*(C3+C3)*(D3+D3)</f>
+        <f t="shared" ref="E3:E43" si="0">(B3+B3)*(C3+C3)*(D3+D3)</f>
         <v>8000</v>
       </c>
       <c r="F3" s="3">
@@ -712,10 +741,13 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>10</v>
@@ -739,10 +771,13 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
@@ -766,10 +801,13 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>20</v>
@@ -793,10 +831,13 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>30</v>
@@ -820,10 +861,13 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>24</v>
@@ -847,10 +891,13 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>50</v>
@@ -874,10 +921,13 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>15</v>
@@ -901,23 +951,26 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -928,23 +981,26 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>64</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -955,23 +1011,26 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>64</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -982,10 +1041,13 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
         <v>7</v>
@@ -1009,10 +1071,13 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>7</v>
@@ -1036,10 +1101,13 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1063,10 +1131,13 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1090,10 +1161,13 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
@@ -1117,10 +1191,13 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -1144,10 +1221,13 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -1171,10 +1251,13 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
         <v>7</v>
@@ -1193,28 +1276,31 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1225,10 +1311,13 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2">
         <v>9</v>
@@ -1252,10 +1341,13 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
@@ -1279,10 +1371,13 @@
       <c r="H24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2">
         <v>9</v>
@@ -1306,10 +1401,13 @@
       <c r="H25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
         <v>10</v>
@@ -1333,10 +1431,13 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>10</v>
@@ -1360,10 +1461,13 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>9</v>
@@ -1387,23 +1491,26 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="2">
         <v>35</v>
       </c>
-      <c r="B29" s="2">
-        <v>35</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>20</v>
-      </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>11200</v>
+        <v>8400</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1414,10 +1521,13 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
         <v>5</v>
@@ -1441,13 +1551,16 @@
       <c r="H30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
@@ -1457,7 +1570,7 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -1468,10 +1581,13 @@
       <c r="H31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>15</v>
@@ -1495,10 +1611,13 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>25</v>
@@ -1522,10 +1641,13 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2">
         <v>14</v>
@@ -1549,10 +1671,13 @@
       <c r="H34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
@@ -1576,10 +1701,13 @@
       <c r="H35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
@@ -1603,10 +1731,13 @@
       <c r="H36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
@@ -1630,10 +1761,13 @@
       <c r="H37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
@@ -1657,10 +1791,13 @@
       <c r="H38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2">
         <v>150</v>
@@ -1684,10 +1821,13 @@
       <c r="H39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2">
         <v>45</v>
@@ -1711,156 +1851,219 @@
       <c r="H40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>23712</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="2">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>6720</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="2">
+        <v>150</v>
+      </c>
+      <c r="C43" s="2">
+        <v>59</v>
+      </c>
+      <c r="D43" s="2">
+        <v>250</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>17700000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC1809\Desktop\Git\kgEngine\PythonApplication1\PythonApplication1\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_20ff\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD6F54BB-B888-45F5-A215-82DEC7D2502B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BFC5BCF-0EEC-4272-8089-2A13AEE48758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -86,7 +86,6 @@
   </si>
   <si>
     <t>アニメーションはあるかどうか</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メッシュコライダーにするかどうか</t>
@@ -257,6 +256,24 @@
   </si>
   <si>
     <t>otablesquare_board</t>
+  </si>
+  <si>
+    <t>ocoin</t>
+  </si>
+  <si>
+    <t>obook</t>
+  </si>
+  <si>
+    <t>okabin</t>
+  </si>
+  <si>
+    <t>ostandlight</t>
+  </si>
+  <si>
+    <t>odougubako</t>
+  </si>
+  <si>
+    <t>osoap</t>
   </si>
 </sst>
 </file>
@@ -312,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -335,13 +352,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,6 +404,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -678,10 +735,10 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -708,10 +765,10 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -729,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E43" si="0">(B3+B3)*(C3+C3)*(D3+D3)</f>
+        <f t="shared" ref="E3:E49" si="0">(B3+B3)*(C3+C3)*(D3+D3)</f>
         <v>8000</v>
       </c>
       <c r="F3" s="3">
@@ -738,10 +795,10 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -768,10 +825,10 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -798,10 +855,10 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -828,10 +885,10 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -858,10 +915,10 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -888,10 +945,10 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -918,10 +975,10 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -948,10 +1005,10 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -960,17 +1017,17 @@
         <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -978,10 +1035,10 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -990,17 +1047,17 @@
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1008,10 +1065,10 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1020,17 +1077,17 @@
         <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1038,10 +1095,10 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1068,10 +1125,10 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1098,10 +1155,10 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1116,11 +1173,11 @@
         <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>2304</v>
+        <v>1656</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1128,10 +1185,10 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1146,11 +1203,11 @@
         <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>2304</v>
+        <v>1656</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1158,10 +1215,10 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1173,14 +1230,14 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1188,10 +1245,10 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1203,14 +1260,14 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -1218,10 +1275,10 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1233,14 +1290,14 @@
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1248,10 +1305,10 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1278,10 +1335,10 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1308,10 +1365,10 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1338,10 +1395,10 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1368,10 +1425,10 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24">
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1398,10 +1455,10 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25">
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1428,10 +1485,10 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1458,10 +1515,10 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1488,10 +1545,10 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1503,14 +1560,14 @@
         <v>20</v>
       </c>
       <c r="C29" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2">
         <v>35</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>11200</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1518,10 +1575,10 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1530,7 +1587,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -1540,7 +1597,7 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>1680</v>
+        <v>1344</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -1548,10 +1605,10 @@
       <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1560,7 +1617,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
@@ -1570,7 +1627,7 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -1578,10 +1635,10 @@
       <c r="G31" s="3">
         <v>1</v>
       </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1608,10 +1665,10 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1638,10 +1695,10 @@
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33">
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1668,10 +1725,10 @@
       <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1680,17 +1737,17 @@
         <v>42</v>
       </c>
       <c r="B35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
       </c>
       <c r="D35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1698,10 +1755,10 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1728,10 +1785,10 @@
       <c r="G36" s="3">
         <v>0</v>
       </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36">
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1746,11 +1803,11 @@
         <v>1</v>
       </c>
       <c r="D37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1758,10 +1815,10 @@
       <c r="G37" s="3">
         <v>0</v>
       </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37">
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1788,10 +1845,10 @@
       <c r="G38" s="3">
         <v>0</v>
       </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38">
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1818,10 +1875,10 @@
       <c r="G39" s="3">
         <v>0</v>
       </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39">
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1848,10 +1905,10 @@
       <c r="G40" s="3">
         <v>0</v>
       </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40">
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1878,10 +1935,10 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41">
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1908,10 +1965,10 @@
       <c r="G42" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42">
+      <c r="H42" s="8">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1938,74 +1995,194 @@
       <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="A44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="2">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>4608</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="A46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>25920</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>9728</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2">
+        <v>27</v>
+      </c>
+      <c r="C48" s="2">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2">
+        <v>19</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>69768</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="2">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="0"/>
+        <v>13824</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2013,9 +2190,10 @@
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="H50" s="8"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2023,9 +2201,10 @@
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="H51" s="8"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2033,9 +2212,10 @@
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="H52" s="8"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2043,9 +2223,10 @@
       <c r="E53" s="2"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53" s="8"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2053,9 +2234,10 @@
       <c r="E54" s="2"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" s="8"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2063,9 +2245,10 @@
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55" s="8"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2073,9 +2256,10 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56" s="9"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2083,9 +2267,10 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="H57" s="9"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2093,9 +2278,10 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="H58" s="9"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2103,9 +2289,10 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="H59" s="9"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2113,9 +2300,10 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="H60" s="9"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2123,9 +2311,10 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61" s="9"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2133,9 +2322,10 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="H62" s="9"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2143,9 +2333,10 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="H63" s="9"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2153,9 +2344,10 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64" s="9"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2163,9 +2355,10 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="H65" s="9"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2173,9 +2366,10 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="H66" s="9"/>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2183,9 +2377,10 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="H67" s="9"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2193,9 +2388,10 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="H68" s="9"/>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2203,9 +2399,10 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="H69" s="9"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2213,9 +2410,10 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="H70" s="9"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2223,9 +2421,10 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="H71" s="9"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2233,9 +2432,10 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="H72" s="9"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2243,9 +2443,10 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="H73" s="9"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2253,9 +2454,10 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="H74" s="9"/>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2263,9 +2465,10 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="H75" s="9"/>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2273,9 +2476,10 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="H76" s="9"/>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2283,9 +2487,10 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="H77" s="9"/>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2293,9 +2498,10 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="H78" s="9"/>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2305,7 +2511,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_20ff\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BFC5BCF-0EEC-4272-8089-2A13AEE48758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C3086A-E3B1-4A67-BFD6-69BBCE93DF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>osoap</t>
+  </si>
+  <si>
+    <t>osofa</t>
   </si>
 </sst>
 </file>
@@ -699,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -786,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E49" si="0">(B3+B3)*(C3+C3)*(D3+D3)</f>
+        <f t="shared" ref="E3:E50" si="0">(B3+B3)*(C3+C3)*(D3+D3)</f>
         <v>8000</v>
       </c>
       <c r="F3" s="3">
@@ -2007,17 +2010,17 @@
         <v>51</v>
       </c>
       <c r="B44" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>4608</v>
+        <v>3200</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2183,15 +2186,34 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="6"/>
+      <c r="A50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="2">
+        <v>170</v>
+      </c>
+      <c r="C50" s="2">
+        <v>60</v>
+      </c>
+      <c r="D50" s="2">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="0"/>
+        <v>6528000</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_20ff\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C3086A-E3B1-4A67-BFD6-69BBCE93DF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A80C14-7D69-4D95-A29E-C7A73FD3FBB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -91,42 +91,6 @@
     <t>メッシュコライダーにするかどうか</t>
   </si>
   <si>
-    <t>obox1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obox2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obox3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obox4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obox5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obox6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>oboxpath1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ozunko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ohito</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>othumbtack</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -253,9 +217,6 @@
   <si>
     <t>obear</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>otablesquare_board</t>
   </si>
   <si>
     <t>ocoin</t>
@@ -702,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -746,22 +707,22 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E41" si="0">(B2+B2)*(C2+C2)*(D2+D2)</f>
         <v>8</v>
       </c>
-      <c r="E2" s="2">
-        <f>(B2+B2)*(C2+C2)*(D2+D2)</f>
-        <v>2688</v>
-      </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
@@ -776,21 +737,21 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E50" si="0">(B3+B3)*(C3+C3)*(D3+D3)</f>
-        <v>8000</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -810,17 +771,17 @@
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -840,17 +801,17 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>25600</v>
+        <v>2184</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -870,23 +831,23 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>51200</v>
+        <v>2184</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
@@ -900,17 +861,17 @@
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>144000</v>
+        <v>1656</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -930,23 +891,23 @@
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>156672</v>
+        <v>1656</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -960,26 +921,26 @@
         <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>720000</v>
+        <v>720</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -990,17 +951,17 @@
         <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>38400</v>
+        <v>720</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -1009,28 +970,28 @@
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>720</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -1046,11 +1007,11 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1060,7 +1021,7 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1080,17 +1041,17 @@
         <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1110,17 +1071,17 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="2">
-        <v>13</v>
-      </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>2184</v>
+        <v>432</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1140,26 +1101,26 @@
         <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>2184</v>
+        <v>6000</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -1170,26 +1131,26 @@
         <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>1656</v>
+        <v>1296</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="6">
         <v>0</v>
@@ -1200,23 +1161,23 @@
         <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>1656</v>
+        <v>16000</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="8">
         <v>0</v>
@@ -1230,17 +1191,17 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>16000</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1260,23 +1221,23 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>20736</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="8">
         <v>0</v>
@@ -1290,17 +1251,17 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>11200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1320,23 +1281,23 @@
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>1344</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="8">
         <v>0</v>
@@ -1350,23 +1311,23 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>960</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="8">
         <v>0</v>
@@ -1380,23 +1341,23 @@
         <v>30</v>
       </c>
       <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
         <v>9</v>
       </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3</v>
-      </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>20520</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="8">
         <v>0</v>
@@ -1410,17 +1371,17 @@
         <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>125000</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1429,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="6">
         <v>0</v>
@@ -1440,17 +1401,17 @@
         <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>1296</v>
+        <v>21952</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -1459,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="6">
         <v>0</v>
@@ -1470,17 +1431,17 @@
         <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>96</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1500,17 +1461,17 @@
         <v>34</v>
       </c>
       <c r="B27" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>256</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1530,23 +1491,23 @@
         <v>35</v>
       </c>
       <c r="B28" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>20736</v>
+        <v>128</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="8">
         <v>0</v>
@@ -1560,17 +1521,17 @@
         <v>36</v>
       </c>
       <c r="B29" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>11200</v>
+        <v>216</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1590,29 +1551,29 @@
         <v>37</v>
       </c>
       <c r="B30" s="2">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D30" s="2">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>1344</v>
+        <v>7434000</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="8">
         <v>0</v>
       </c>
       <c r="I30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1620,29 +1581,29 @@
         <v>38</v>
       </c>
       <c r="B31" s="2">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D31" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>1620000</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="8">
         <v>0</v>
       </c>
       <c r="I31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1650,17 +1611,17 @@
         <v>39</v>
       </c>
       <c r="B32" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
         <v>19</v>
       </c>
-      <c r="D32" s="2">
-        <v>9</v>
-      </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>20520</v>
+        <v>23712</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1680,17 +1641,17 @@
         <v>40</v>
       </c>
       <c r="B33" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>6720</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1710,17 +1671,17 @@
         <v>41</v>
       </c>
       <c r="B34" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>21952</v>
+        <f t="shared" ref="E34:E40" si="1">(B34+B34)*(C34+C34)*(D34+D34)</f>
+        <v>3200</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -1740,17 +1701,17 @@
         <v>42</v>
       </c>
       <c r="B35" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>12000</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1770,23 +1731,23 @@
         <v>43</v>
       </c>
       <c r="B36" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>256</v>
+        <f t="shared" si="1"/>
+        <v>25920</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="8">
         <v>0</v>
@@ -1800,17 +1761,17 @@
         <v>44</v>
       </c>
       <c r="B37" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>128</v>
+        <f t="shared" si="1"/>
+        <v>9728</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1830,17 +1791,17 @@
         <v>45</v>
       </c>
       <c r="B38" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>216</v>
+        <f t="shared" si="1"/>
+        <v>69768</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -1860,29 +1821,29 @@
         <v>46</v>
       </c>
       <c r="B39" s="2">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>7434000</v>
+        <f t="shared" si="1"/>
+        <v>13824</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="8">
         <v>0</v>
       </c>
       <c r="I39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1890,17 +1851,17 @@
         <v>47</v>
       </c>
       <c r="B40" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="C40" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D40" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>1620000</v>
+        <f t="shared" si="1"/>
+        <v>6528000</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -1916,304 +1877,114 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="2">
-        <v>13</v>
-      </c>
-      <c r="C41" s="2">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2">
-        <v>19</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>23712</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="2">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2">
-        <v>5</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>6720</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="2">
-        <v>150</v>
-      </c>
-      <c r="C43" s="2">
-        <v>59</v>
-      </c>
-      <c r="D43" s="2">
-        <v>250</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>17700000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="2">
-        <v>10</v>
-      </c>
-      <c r="C44" s="2">
-        <v>10</v>
-      </c>
-      <c r="D44" s="2">
-        <v>4</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>3200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="2">
-        <v>5</v>
-      </c>
-      <c r="C45" s="2">
-        <v>20</v>
-      </c>
-      <c r="D45" s="2">
-        <v>15</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="8">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="2">
-        <v>9</v>
-      </c>
-      <c r="C46" s="2">
-        <v>40</v>
-      </c>
-      <c r="D46" s="2">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="0"/>
-        <v>25920</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="8">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <v>0</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="2">
-        <v>8</v>
-      </c>
-      <c r="C47" s="2">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="0"/>
-        <v>9728</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="8">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="2">
-        <v>27</v>
-      </c>
-      <c r="C48" s="2">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2">
-        <v>19</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="0"/>
-        <v>69768</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="2">
-        <v>8</v>
-      </c>
-      <c r="C49" s="2">
-        <v>27</v>
-      </c>
-      <c r="D49" s="2">
-        <v>8</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="0"/>
-        <v>13824</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="8">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="2">
-        <v>170</v>
-      </c>
-      <c r="C50" s="2">
-        <v>60</v>
-      </c>
-      <c r="D50" s="2">
-        <v>80</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="0"/>
-        <v>6528000</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>1</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_20ff\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A80C14-7D69-4D95-A29E-C7A73FD3FBB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A87D277-C2EE-4CC5-A60C-365CA0150775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,13 +33,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図鑑とかで表示する名前</t>
   </si>
   <si>
     <t>幅(x)</t>
@@ -95,6 +100,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ガビョウ</t>
+  </si>
+  <si>
     <t>othumbtack_blue</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -107,6 +115,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ケシゴム</t>
+  </si>
+  <si>
     <t>oeraser_red</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -115,6 +126,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>エンピツ</t>
+  </si>
+  <si>
     <t>opencil_yellow</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -123,6 +137,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ドミノ</t>
+  </si>
+  <si>
     <t>odomino_red</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,26 +152,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>マッチボウ</t>
+  </si>
+  <si>
     <t>osaikoro</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>サイコロ</t>
+  </si>
+  <si>
     <t>omagnet</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ジシャク</t>
+  </si>
+  <si>
     <t>omouse</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ネズミ</t>
+  </si>
+  <si>
     <t>ocockroach</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ゴキブリ</t>
+  </si>
+  <si>
     <t>oglass_yellow</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>グラス</t>
+  </si>
+  <si>
     <t>oglass_blue</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -163,88 +198,154 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ボトル</t>
+  </si>
+  <si>
     <t>osmartphone</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>スマートフォン</t>
+  </si>
+  <si>
     <t>ospoon</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>スプーン</t>
+  </si>
+  <si>
     <t>ofork</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>フォーク</t>
+  </si>
+  <si>
     <t>oclock</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>トケイ</t>
+  </si>
+  <si>
     <t>oapple</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>リンゴ</t>
+  </si>
+  <si>
     <t>oorange</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>オレンジ</t>
+  </si>
+  <si>
     <t>odaia</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ダイヤ</t>
+  </si>
+  <si>
     <t>oemerald</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>エメラルド</t>
+  </si>
+  <si>
     <t>oruby</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ルビー</t>
+  </si>
+  <si>
     <t>osapphire</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>サファイア</t>
+  </si>
+  <si>
     <t>otablesquare</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>テーブル</t>
+  </si>
+  <si>
     <t>ochair</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>イス</t>
+  </si>
+  <si>
     <t>ocup</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>コップ</t>
+  </si>
+  <si>
     <t>obear</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>クマノニンギョウ</t>
+  </si>
+  <si>
     <t>ocoin</t>
   </si>
   <si>
+    <t>メダル</t>
+  </si>
+  <si>
     <t>obook</t>
   </si>
   <si>
+    <t>ホン</t>
+  </si>
+  <si>
     <t>okabin</t>
   </si>
   <si>
+    <t>カビン</t>
+  </si>
+  <si>
     <t>ostandlight</t>
   </si>
   <si>
+    <t>スタンド</t>
+  </si>
+  <si>
     <t>odougubako</t>
   </si>
   <si>
+    <t>コウグバコ</t>
+  </si>
+  <si>
     <t>osoap</t>
   </si>
   <si>
+    <t>シャンプー</t>
+  </si>
+  <si>
     <t>osofa</t>
+  </si>
+  <si>
+    <t>ソファー</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +366,14 @@
       <color rgb="FF222222"/>
       <name val="Inherit"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -350,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,6 +488,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -661,27 +773,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:I41"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="31.625" customWidth="1"/>
     <col min="8" max="8" width="27.25" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -693,25 +806,28 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -720,28 +836,31 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E41" si="0">(B2+B2)*(C2+C2)*(D2+D2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F40" si="0">(C2+C2)*(D2+D2)*(E2+E2)</f>
         <v>8</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -750,29 +869,32 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -780,268 +902,295 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>2184</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
       <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>2184</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
       <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>1656</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
       <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
         <v>23</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>1656</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1050,328 +1199,361 @@
         <v>2</v>
       </c>
       <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>1296</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>20736</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>11200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>1344</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2">
         <v>9</v>
       </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>432</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>1296</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>20736</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>35</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>11200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>1344</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>960</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>20520</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="2">
         <v>25</v>
@@ -1380,28 +1562,31 @@
         <v>25</v>
       </c>
       <c r="E24" s="2">
+        <v>25</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>125000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="2">
         <v>14</v>
@@ -1410,118 +1595,130 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>21952</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="2">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>2</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2">
         <v>4</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>4</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
       <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
@@ -1530,353 +1727,389 @@
         <v>3</v>
       </c>
       <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="2">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2">
         <v>150</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>59</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>105</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
         <v>7434000</v>
       </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="2">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2">
         <v>45</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>90</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>50</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>1620000</v>
       </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="8">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="2">
+        <v>63</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2">
         <v>13</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>12</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>19</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>23712</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="2">
+        <v>65</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2">
         <v>12</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>14</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>6720</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="2">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C34" s="2">
         <v>10</v>
       </c>
       <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
         <v>4</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" ref="E34:E40" si="1">(B34+B34)*(C34+C34)*(D34+D34)</f>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
       <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="8">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="2">
+        <v>69</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2">
         <v>5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>20</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>15</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" si="1"/>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="8">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="2">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2">
         <v>9</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>40</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>9</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" si="1"/>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
         <v>25920</v>
       </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
       <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="2">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2">
         <v>8</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>19</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>8</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" si="1"/>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
         <v>9728</v>
       </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
       <c r="G37" s="3">
         <v>0</v>
       </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="2">
+        <v>75</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2">
         <v>27</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" s="2">
         <v>17</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>19</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" si="1"/>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
         <v>69768</v>
       </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
       <c r="G38" s="3">
         <v>0</v>
       </c>
-      <c r="H38" s="8">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="2">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2">
         <v>8</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>27</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>8</v>
       </c>
-      <c r="E39" s="2">
-        <f t="shared" si="1"/>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
         <v>13824</v>
       </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
       <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="2">
+        <v>79</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2">
         <v>170</v>
       </c>
-      <c r="C40" s="2">
+      <c r="D40" s="2">
         <v>60</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>80</v>
       </c>
-      <c r="E40" s="2">
-        <f t="shared" si="1"/>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
         <v>6528000</v>
       </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
       <c r="G40" s="3">
         <v>0</v>
       </c>
-      <c r="H40" s="8">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1887,7 +2120,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1898,7 +2131,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1909,7 +2142,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1920,7 +2153,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1931,7 +2164,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1942,7 +2175,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1953,7 +2186,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_20ff\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2ce8\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A87D277-C2EE-4CC5-A60C-365CA0150775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CD6BF1-5BFE-4465-B1B4-33B98A9DA28A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -339,6 +339,42 @@
   </si>
   <si>
     <t>ソファー</t>
+  </si>
+  <si>
+    <t>obishop</t>
+  </si>
+  <si>
+    <t>ビショップ</t>
+  </si>
+  <si>
+    <t>oking</t>
+  </si>
+  <si>
+    <t>キング</t>
+  </si>
+  <si>
+    <t>oknight</t>
+  </si>
+  <si>
+    <t>ナイト</t>
+  </si>
+  <si>
+    <t>opawn</t>
+  </si>
+  <si>
+    <t>ポーン</t>
+  </si>
+  <si>
+    <t>oqueen</t>
+  </si>
+  <si>
+    <t>クイーン</t>
+  </si>
+  <si>
+    <t>orook</t>
+  </si>
+  <si>
+    <t>ルーク</t>
   </si>
 </sst>
 </file>
@@ -775,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -830,17 +866,17 @@
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F40" si="0">(C2+C2)*(D2+D2)*(E2+E2)</f>
-        <v>8</v>
+        <f t="shared" ref="F2:F39" si="0">(C2+C2)*(D2+D2)*(E2+E2)</f>
+        <v>9.4639999999999986</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -863,17 +899,17 @@
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9.4639999999999986</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -896,17 +932,17 @@
         <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9.4639999999999986</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -932,14 +968,14 @@
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="2">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>2184</v>
+        <v>1862</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -965,14 +1001,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="2">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>2184</v>
+        <v>1862</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -995,17 +1031,17 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E7" s="2">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>1656</v>
+        <v>1322.4</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -1028,17 +1064,17 @@
         <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E8" s="2">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1656</v>
+        <v>1322.4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -1061,17 +1097,17 @@
         <v>21</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D9" s="2">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>356.59199999999998</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -1094,17 +1130,17 @@
         <v>21</v>
       </c>
       <c r="C10" s="2">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D10" s="2">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>356.59199999999998</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -1127,17 +1163,17 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D11" s="2">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>356.59199999999998</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -1160,17 +1196,17 @@
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>5.0688000000000004</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1193,17 +1229,17 @@
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>28.800000000000004</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -1226,17 +1262,17 @@
         <v>29</v>
       </c>
       <c r="C14" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D14" s="2">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="E14" s="2">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>106.904</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1259,17 +1295,17 @@
         <v>31</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D15" s="2">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="E15" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>6557.76</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1292,17 +1328,17 @@
         <v>33</v>
       </c>
       <c r="C16" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="E16" s="2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>1296</v>
+        <v>990.07999999999993</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -1325,17 +1361,17 @@
         <v>35</v>
       </c>
       <c r="C17" s="2">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="D17" s="2">
-        <v>20</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>19319.328000000001</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1358,17 +1394,17 @@
         <v>35</v>
       </c>
       <c r="C18" s="2">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E18" s="2">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>19319.328000000001</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1391,17 +1427,17 @@
         <v>38</v>
       </c>
       <c r="C19" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D19" s="2">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="E19" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>20736</v>
+        <v>23465</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -1424,17 +1460,17 @@
         <v>40</v>
       </c>
       <c r="C20" s="2">
-        <v>20</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D20" s="2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E20" s="2">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>11200</v>
+        <v>10540.439999999999</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1457,17 +1493,17 @@
         <v>42</v>
       </c>
       <c r="C21" s="2">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D21" s="2">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>1344</v>
+        <v>624.36</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1490,17 +1526,17 @@
         <v>44</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>20</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>525.3599999999999</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1529,11 +1565,11 @@
         <v>19</v>
       </c>
       <c r="E23" s="2">
-        <v>9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>20520</v>
+        <v>45372</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1622,17 +1658,17 @@
         <v>52</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D26" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1655,17 +1691,17 @@
         <v>54</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E27" s="2">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>138.24000000000004</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1688,17 +1724,17 @@
         <v>56</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>121.36</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -1721,17 +1757,17 @@
         <v>58</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D29" s="2">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>115.19999999999999</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2093,7 +2129,7 @@
         <v>80</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="0"/>
+        <f>(C40+C40)*(D40+D40)*(E40+E40)</f>
         <v>6528000</v>
       </c>
       <c r="G40" s="3">
@@ -2110,70 +2146,202 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="6"/>
+      <c r="A41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F41" s="2">
+        <f>(C41+C41)*(D41+D41)*(E41+E41)</f>
+        <v>17.496000000000002</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="6"/>
+      <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F42" s="2">
+        <f>(C42+C42)*(D42+D42)*(E42+E42)</f>
+        <v>11.367999999999999</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="6"/>
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F43" s="2">
+        <f>(C43+C43)*(D43+D43)*(E43+E43)</f>
+        <v>19.008000000000003</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="6"/>
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F44" s="2">
+        <f>(C44+C44)*(D44+D44)*(E44+E44)</f>
+        <v>16.192</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="6"/>
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F45" s="2">
+        <f>(C45+C45)*(D45+D45)*(E45+E45)</f>
+        <v>14.335999999999999</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="6"/>
+      <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <f>(C46+C46)*(D46+D46)*(E46+E46)</f>
+        <v>22</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2ce8\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CD6BF1-5BFE-4465-B1B4-33B98A9DA28A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A92FBF-1643-46A9-AE20-1305B526034C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>ルーク</t>
+  </si>
+  <si>
+    <t>okey</t>
+  </si>
+  <si>
+    <t>キー</t>
+  </si>
+  <si>
+    <t>oportion</t>
+  </si>
+  <si>
+    <t>ポーション</t>
   </si>
 </sst>
 </file>
@@ -811,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1229,17 +1241,17 @@
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D13" s="2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E13" s="2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>28.800000000000004</v>
+        <v>46.656000000000006</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -2344,26 +2356,70 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="6"/>
+      <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="F47" s="2">
+        <f>(C47+C47)*(D47+D47)*(E47+E47)</f>
+        <v>7.919999999999999</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="6"/>
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="F48" s="2">
+        <f>(C48+C48)*(D48+D48)*(E48+E48)</f>
+        <v>57.6</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2ce8\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A92FBF-1643-46A9-AE20-1305B526034C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C3578D8-BFBD-4FAB-BCE2-EA2980E4554B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1772,14 +1772,14 @@
         <v>2.4</v>
       </c>
       <c r="D29" s="2">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="E29" s="2">
         <v>2.5</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>115.19999999999999</v>
+        <v>129.60000000000002</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22505"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2ce8\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C3578D8-BFBD-4FAB-BCE2-EA2980E4554B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A29A128-B638-457D-9B43-AE7DFE2381DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -96,11 +96,20 @@
     <t>メッシュコライダーにするかどうか</t>
   </si>
   <si>
+    <t>巻き込まれた時にデフォルトではない音を出すか</t>
+  </si>
+  <si>
+    <t>→の音のファイル名(無しなら0)</t>
+  </si>
+  <si>
     <t>othumbtack</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ガビョウ</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>othumbtack_blue</t>
@@ -507,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +548,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,24 +833,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="G45" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="4" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
     <col min="8" max="8" width="27.25" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
     <col min="10" max="10" width="29.75" customWidth="1"/>
+    <col min="11" max="11" width="40.25" customWidth="1"/>
+    <col min="12" max="12" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,13 +885,19 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>1.3</v>
@@ -902,13 +924,19 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>1.3</v>
@@ -935,13 +963,19 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>1.3</v>
@@ -968,13 +1002,19 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
@@ -1001,13 +1041,19 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>7</v>
@@ -1034,13 +1080,19 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>2.9</v>
@@ -1067,13 +1119,19 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>2.9</v>
@@ -1100,13 +1158,19 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>4.5999999999999996</v>
@@ -1133,13 +1197,19 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>4.5999999999999996</v>
@@ -1166,13 +1236,19 @@
       <c r="J10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
         <v>4.5999999999999996</v>
@@ -1199,13 +1275,19 @@
       <c r="J11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>6.6</v>
@@ -1232,13 +1314,19 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>1.8</v>
@@ -1265,13 +1353,19 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2">
         <v>8.3000000000000007</v>
@@ -1298,13 +1392,19 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>4.5999999999999996</v>
@@ -1331,13 +1431,19 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <v>8</v>
@@ -1364,13 +1470,19 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
         <v>11.1</v>
@@ -1397,13 +1509,19 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2">
         <v>11.1</v>
@@ -1430,13 +1548,19 @@
       <c r="J18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>9.5</v>
@@ -1463,13 +1587,19 @@
       <c r="J19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2">
         <v>20.100000000000001</v>
@@ -1496,13 +1626,19 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2">
         <v>3.3</v>
@@ -1529,13 +1665,19 @@
       <c r="J21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2">
         <v>3.3</v>
@@ -1562,13 +1704,19 @@
       <c r="J22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2">
         <v>15</v>
@@ -1595,13 +1743,19 @@
       <c r="J23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2">
         <v>25</v>
@@ -1628,13 +1782,19 @@
       <c r="J24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2">
         <v>14</v>
@@ -1661,13 +1821,19 @@
       <c r="J25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2">
         <v>2.5</v>
@@ -1694,13 +1860,19 @@
       <c r="J26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -1727,13 +1899,19 @@
       <c r="J27" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2">
         <v>3.7</v>
@@ -1760,13 +1938,19 @@
       <c r="J28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2">
         <v>2.4</v>
@@ -1793,13 +1977,19 @@
       <c r="J29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2">
         <v>150</v>
@@ -1826,13 +2016,19 @@
       <c r="J30" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2">
         <v>45</v>
@@ -1859,13 +2055,19 @@
       <c r="J31" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2">
         <v>13</v>
@@ -1892,13 +2094,19 @@
       <c r="J32" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2">
         <v>12</v>
@@ -1925,13 +2133,19 @@
       <c r="J33" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2">
         <v>10</v>
@@ -1958,13 +2172,19 @@
       <c r="J34" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
@@ -1991,13 +2211,19 @@
       <c r="J35" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2">
         <v>9</v>
@@ -2024,13 +2250,19 @@
       <c r="J36" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2">
         <v>8</v>
@@ -2057,13 +2289,19 @@
       <c r="J37" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2">
         <v>27</v>
@@ -2090,13 +2328,19 @@
       <c r="J38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2">
         <v>8</v>
@@ -2123,13 +2367,19 @@
       <c r="J39" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2">
         <v>170</v>
@@ -2156,13 +2406,19 @@
       <c r="J40" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2">
         <v>0.9</v>
@@ -2189,13 +2445,19 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2">
         <v>0.7</v>
@@ -2222,13 +2484,19 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2">
         <v>0.8</v>
@@ -2255,13 +2523,19 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2">
         <v>1.1000000000000001</v>
@@ -2288,13 +2562,19 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2">
         <v>0.8</v>
@@ -2321,13 +2601,19 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2">
         <v>1.1000000000000001</v>
@@ -2354,13 +2640,19 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -2387,13 +2679,19 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2">
         <v>1.5</v>
@@ -2419,6 +2717,12 @@
       </c>
       <c r="J48" s="3">
         <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9">

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2ce8\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akuro\Desktop\Git\kgEngine\PythonApplication1\PythonApplication1\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A29A128-B638-457D-9B43-AE7DFE2381DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -401,7 +400,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -832,26 +831,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G45" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="4" width="7.75" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" customWidth="1"/>
+    <col min="3" max="4" width="7.69921875" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="8" max="8" width="27.19921875" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="29.75" customWidth="1"/>
-    <col min="11" max="11" width="40.25" customWidth="1"/>
-    <col min="12" max="12" width="27.875" customWidth="1"/>
+    <col min="10" max="10" width="29.69921875" customWidth="1"/>
+    <col min="11" max="11" width="40.19921875" customWidth="1"/>
+    <col min="12" max="12" width="27.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1329,17 +1328,17 @@
         <v>30</v>
       </c>
       <c r="C13" s="2">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="D13" s="2">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="E13" s="2">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>46.656000000000006</v>
+        <v>27</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -1507,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
@@ -1546,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
@@ -1780,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="6">
         <v>0</v>
@@ -1819,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
@@ -2391,7 +2390,7 @@
         <v>80</v>
       </c>
       <c r="F40" s="2">
-        <f>(C40+C40)*(D40+D40)*(E40+E40)</f>
+        <f t="shared" ref="F40:F48" si="1">(C40+C40)*(D40+D40)*(E40+E40)</f>
         <v>6528000</v>
       </c>
       <c r="G40" s="3">
@@ -2430,7 +2429,7 @@
         <v>0.9</v>
       </c>
       <c r="F41" s="2">
-        <f>(C41+C41)*(D41+D41)*(E41+E41)</f>
+        <f t="shared" si="1"/>
         <v>17.496000000000002</v>
       </c>
       <c r="G41" s="3">
@@ -2469,7 +2468,7 @@
         <v>0.7</v>
       </c>
       <c r="F42" s="2">
-        <f>(C42+C42)*(D42+D42)*(E42+E42)</f>
+        <f t="shared" si="1"/>
         <v>11.367999999999999</v>
       </c>
       <c r="G42" s="3">
@@ -2508,7 +2507,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F43" s="2">
-        <f>(C43+C43)*(D43+D43)*(E43+E43)</f>
+        <f t="shared" si="1"/>
         <v>19.008000000000003</v>
       </c>
       <c r="G43" s="3">
@@ -2547,7 +2546,7 @@
         <v>0.8</v>
       </c>
       <c r="F44" s="2">
-        <f>(C44+C44)*(D44+D44)*(E44+E44)</f>
+        <f t="shared" si="1"/>
         <v>16.192</v>
       </c>
       <c r="G44" s="3">
@@ -2586,7 +2585,7 @@
         <v>0.8</v>
       </c>
       <c r="F45" s="2">
-        <f>(C45+C45)*(D45+D45)*(E45+E45)</f>
+        <f t="shared" si="1"/>
         <v>14.335999999999999</v>
       </c>
       <c r="G45" s="3">
@@ -2625,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="2">
-        <f>(C46+C46)*(D46+D46)*(E46+E46)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="G46" s="3">
@@ -2664,7 +2663,7 @@
         <v>3.3</v>
       </c>
       <c r="F47" s="2">
-        <f>(C47+C47)*(D47+D47)*(E47+E47)</f>
+        <f t="shared" si="1"/>
         <v>7.919999999999999</v>
       </c>
       <c r="G47" s="3">
@@ -2703,7 +2702,7 @@
         <v>3.2</v>
       </c>
       <c r="F48" s="2">
-        <f>(C48+C48)*(D48+D48)*(E48+E48)</f>
+        <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
       <c r="G48" s="3">

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -395,6 +395,18 @@
   </si>
   <si>
     <t>ポーション</t>
+  </si>
+  <si>
+    <t>okiritan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トウホクキリタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kiritan</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -458,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -509,13 +521,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,6 +584,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2390,7 +2430,7 @@
         <v>80</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" ref="F40:F48" si="1">(C40+C40)*(D40+D40)*(E40+E40)</f>
+        <f t="shared" ref="F40:F49" si="1">(C40+C40)*(D40+D40)*(E40+E40)</f>
         <v>6528000</v>
       </c>
       <c r="G40" s="3">
@@ -2724,18 +2764,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9">
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>1048.8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>0</v>
+      </c>
+      <c r="K49" s="13">
+        <v>1</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2746,7 +2814,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2757,7 +2825,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2768,7 +2836,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2779,7 +2847,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2790,7 +2858,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2801,7 +2869,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:12">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2812,7 +2880,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:12">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2823,7 +2891,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:12">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2834,7 +2902,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:12">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2845,7 +2913,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:12">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2856,7 +2924,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:12">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2867,7 +2935,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:12">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2878,7 +2946,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:12">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2889,7 +2957,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:12">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1056,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D5" s="2">
         <v>2.5</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>1862</v>
+        <v>1729</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D6" s="2">
         <v>2.5</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>1862</v>
+        <v>1729</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D7" s="2">
         <v>2.5</v>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>1322.4</v>
+        <v>1140</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D8" s="2">
         <v>2.5</v>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1322.4</v>
+        <v>1140</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -1410,14 +1410,14 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D14" s="2">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="E14" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>106.904</v>
+        <v>215.8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1485,17 +1485,17 @@
         <v>36</v>
       </c>
       <c r="C16" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D16" s="2">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="E16" s="2">
         <v>9.1</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>990.07999999999993</v>
+        <v>764.4</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -2148,17 +2148,17 @@
         <v>69</v>
       </c>
       <c r="C33" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>6720</v>
+        <v>5148</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -2187,17 +2187,17 @@
         <v>71</v>
       </c>
       <c r="C34" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2">
         <v>4</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>2592</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
@@ -2772,17 +2772,17 @@
         <v>101</v>
       </c>
       <c r="C49" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D49" s="2">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="E49" s="2">
         <v>3.8</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="1"/>
-        <v>1048.8</v>
+        <v>752.4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="6">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="6">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="6">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="6">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="6">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="6">
         <v>0</v>
@@ -1686,11 +1686,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>624.36</v>
+        <v>609.84</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="6">
         <v>0</v>
@@ -1725,11 +1725,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>19.899999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>525.3599999999999</v>
+        <v>514.79999999999995</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="6">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="6">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="6">
         <v>0</v>
@@ -2109,17 +2109,17 @@
         <v>67</v>
       </c>
       <c r="C32" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>23712</v>
+        <v>17424</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="6">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="6">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="6">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="6">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="6">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="6">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="6">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="6">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="6">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="6">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="6">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="6">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="6">
         <v>0</v>
@@ -2733,17 +2733,17 @@
         <v>99</v>
       </c>
       <c r="C48" s="2">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D48" s="2">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E48" s="2">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" si="1"/>
-        <v>57.6</v>
+        <v>40.56</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="6">
         <v>0</v>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -276,136 +276,147 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>otablesquare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>ochair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イス</t>
+  </si>
+  <si>
+    <t>ocup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コップ</t>
+  </si>
+  <si>
+    <t>obear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クマノニンギョウ</t>
+  </si>
+  <si>
+    <t>ocoin</t>
+  </si>
+  <si>
+    <t>メダル</t>
+  </si>
+  <si>
+    <t>obook</t>
+  </si>
+  <si>
+    <t>ホン</t>
+  </si>
+  <si>
+    <t>okabin</t>
+  </si>
+  <si>
+    <t>カビン</t>
+  </si>
+  <si>
+    <t>ostandlight</t>
+  </si>
+  <si>
+    <t>スタンド</t>
+  </si>
+  <si>
+    <t>odougubako</t>
+  </si>
+  <si>
+    <t>コウグバコ</t>
+  </si>
+  <si>
+    <t>osoap</t>
+  </si>
+  <si>
+    <t>シャンプー</t>
+  </si>
+  <si>
+    <t>osofa</t>
+  </si>
+  <si>
+    <t>ソファー</t>
+  </si>
+  <si>
+    <t>obishop</t>
+  </si>
+  <si>
+    <t>ビショップ</t>
+  </si>
+  <si>
+    <t>oking</t>
+  </si>
+  <si>
+    <t>キング</t>
+  </si>
+  <si>
+    <t>oknight</t>
+  </si>
+  <si>
+    <t>ナイト</t>
+  </si>
+  <si>
+    <t>opawn</t>
+  </si>
+  <si>
+    <t>ポーン</t>
+  </si>
+  <si>
+    <t>oqueen</t>
+  </si>
+  <si>
+    <t>クイーン</t>
+  </si>
+  <si>
+    <t>orook</t>
+  </si>
+  <si>
+    <t>ルーク</t>
+  </si>
+  <si>
+    <t>okey</t>
+  </si>
+  <si>
+    <t>キー</t>
+  </si>
+  <si>
+    <t>oportion</t>
+  </si>
+  <si>
+    <t>ポーション</t>
+  </si>
+  <si>
+    <t>okiritan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トウホクキリタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kiritan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝石シェーダー使う?</t>
+    <rPh sb="0" eb="2">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>サファイア</t>
-  </si>
-  <si>
-    <t>otablesquare</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル</t>
-  </si>
-  <si>
-    <t>ochair</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イス</t>
-  </si>
-  <si>
-    <t>ocup</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コップ</t>
-  </si>
-  <si>
-    <t>obear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クマノニンギョウ</t>
-  </si>
-  <si>
-    <t>ocoin</t>
-  </si>
-  <si>
-    <t>メダル</t>
-  </si>
-  <si>
-    <t>obook</t>
-  </si>
-  <si>
-    <t>ホン</t>
-  </si>
-  <si>
-    <t>okabin</t>
-  </si>
-  <si>
-    <t>カビン</t>
-  </si>
-  <si>
-    <t>ostandlight</t>
-  </si>
-  <si>
-    <t>スタンド</t>
-  </si>
-  <si>
-    <t>odougubako</t>
-  </si>
-  <si>
-    <t>コウグバコ</t>
-  </si>
-  <si>
-    <t>osoap</t>
-  </si>
-  <si>
-    <t>シャンプー</t>
-  </si>
-  <si>
-    <t>osofa</t>
-  </si>
-  <si>
-    <t>ソファー</t>
-  </si>
-  <si>
-    <t>obishop</t>
-  </si>
-  <si>
-    <t>ビショップ</t>
-  </si>
-  <si>
-    <t>oking</t>
-  </si>
-  <si>
-    <t>キング</t>
-  </si>
-  <si>
-    <t>oknight</t>
-  </si>
-  <si>
-    <t>ナイト</t>
-  </si>
-  <si>
-    <t>opawn</t>
-  </si>
-  <si>
-    <t>ポーン</t>
-  </si>
-  <si>
-    <t>oqueen</t>
-  </si>
-  <si>
-    <t>クイーン</t>
-  </si>
-  <si>
-    <t>orook</t>
-  </si>
-  <si>
-    <t>ルーク</t>
-  </si>
-  <si>
-    <t>okey</t>
-  </si>
-  <si>
-    <t>キー</t>
-  </si>
-  <si>
-    <t>oportion</t>
-  </si>
-  <si>
-    <t>ポーション</t>
-  </si>
-  <si>
-    <t>okiritan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トウホクキリタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kiritan</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -549,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +601,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -891,9 +905,10 @@
     <col min="10" max="10" width="29.69921875" customWidth="1"/>
     <col min="11" max="11" width="40.19921875" customWidth="1"/>
     <col min="12" max="12" width="27.8984375" customWidth="1"/>
+    <col min="13" max="13" width="19.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,8 +945,11 @@
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -969,8 +987,11 @@
       <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1008,8 +1029,11 @@
       <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,8 +1071,11 @@
       <c r="L4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1086,8 +1113,11 @@
       <c r="L5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="L6" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1164,8 +1197,11 @@
       <c r="L7" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1203,8 +1239,11 @@
       <c r="L8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1242,8 +1281,11 @@
       <c r="L9" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,8 +1323,11 @@
       <c r="L10" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1320,8 +1365,11 @@
       <c r="L11" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1359,8 +1407,11 @@
       <c r="L12" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1398,8 +1449,11 @@
       <c r="L13" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1437,8 +1491,11 @@
       <c r="L14" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,8 +1533,11 @@
       <c r="L15" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1515,8 +1575,11 @@
       <c r="L16" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1554,8 +1617,11 @@
       <c r="L17" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1593,8 +1659,11 @@
       <c r="L18" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1632,8 +1701,11 @@
       <c r="L19" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1671,8 +1743,11 @@
       <c r="L20" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1710,8 +1785,11 @@
       <c r="L21" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1749,8 +1827,11 @@
       <c r="L22" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -1788,8 +1869,11 @@
       <c r="L23" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1827,8 +1911,11 @@
       <c r="L24" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1866,8 +1953,11 @@
       <c r="L25" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1905,8 +1995,11 @@
       <c r="L26" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -1944,8 +2037,11 @@
       <c r="L27" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -1983,13 +2079,16 @@
       <c r="L28" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2">
         <v>2.4</v>
@@ -2022,13 +2121,16 @@
       <c r="L29" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C30" s="2">
         <v>150</v>
@@ -2061,13 +2163,16 @@
       <c r="L30" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C31" s="2">
         <v>45</v>
@@ -2100,13 +2205,16 @@
       <c r="L31" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C32" s="2">
         <v>11</v>
@@ -2139,13 +2247,16 @@
       <c r="L32" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C33" s="2">
         <v>11</v>
@@ -2178,13 +2289,16 @@
       <c r="L33" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C34" s="2">
         <v>9</v>
@@ -2217,13 +2331,16 @@
       <c r="L34" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
@@ -2256,13 +2373,16 @@
       <c r="L35" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C36" s="2">
         <v>9</v>
@@ -2295,13 +2415,16 @@
       <c r="L36" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C37" s="2">
         <v>8</v>
@@ -2334,13 +2457,16 @@
       <c r="L37" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C38" s="2">
         <v>27</v>
@@ -2373,13 +2499,16 @@
       <c r="L38" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C39" s="2">
         <v>8</v>
@@ -2412,13 +2541,16 @@
       <c r="L39" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C40" s="2">
         <v>170</v>
@@ -2451,13 +2583,16 @@
       <c r="L40" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C41" s="2">
         <v>0.9</v>
@@ -2490,13 +2625,16 @@
       <c r="L41" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C42" s="2">
         <v>0.7</v>
@@ -2529,13 +2667,16 @@
       <c r="L42" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C43" s="2">
         <v>0.8</v>
@@ -2568,13 +2709,16 @@
       <c r="L43" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C44" s="2">
         <v>1.1000000000000001</v>
@@ -2607,13 +2751,16 @@
       <c r="L44" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="C45" s="2">
         <v>0.8</v>
@@ -2646,13 +2793,16 @@
       <c r="L45" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="C46" s="2">
         <v>1.1000000000000001</v>
@@ -2685,13 +2835,16 @@
       <c r="L46" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -2724,13 +2877,16 @@
       <c r="L47" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C48" s="2">
         <v>1.3</v>
@@ -2763,13 +2919,16 @@
       <c r="L48" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C49" s="2">
         <v>4.5</v>
@@ -2800,10 +2959,13 @@
         <v>1</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>101</v>
+      </c>
+      <c r="M49" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2814,7 +2976,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:13">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2825,7 +2987,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2836,7 +2998,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:13">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2847,7 +3009,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2858,7 +3020,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:13">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2869,7 +3031,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:13">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2880,7 +3042,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:13">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2891,7 +3053,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:13">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2902,7 +3064,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:13">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2913,7 +3075,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:13">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2924,7 +3086,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2935,7 +3097,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2946,7 +3108,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:13">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2957,7 +3119,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:13">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>

--- a/PythonApplication1/PythonApplication1/file/Book1.xlsx
+++ b/PythonApplication1/PythonApplication1/file/Book1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="110">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -258,10 +258,6 @@
     <t>ダイヤ</t>
   </si>
   <si>
-    <t>oemerald</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エメラルド</t>
   </si>
   <si>
@@ -272,10 +268,6 @@
     <t>ルビー</t>
   </si>
   <si>
-    <t>osapphire</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>otablesquare</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -406,17 +398,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>宝石シェーダー使う?</t>
+    <t>サファイア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鏡面反射使う？</t>
     <rPh sb="0" eb="2">
-      <t>ホウセキ</t>
+      <t>キョウメン</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="2" eb="4">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サファイア</t>
+    <t>スペキュラマップのファイル名</t>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daiaspec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oemerald</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emeraldspec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rubyspec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>osapphire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sapphirespec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -886,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -906,9 +936,10 @@
     <col min="11" max="11" width="40.19921875" customWidth="1"/>
     <col min="12" max="12" width="27.8984375" customWidth="1"/>
     <col min="13" max="13" width="19.09765625" customWidth="1"/>
+    <col min="14" max="14" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,10 +977,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -990,8 +1024,11 @@
       <c r="M2" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1032,8 +1069,11 @@
       <c r="M3" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1074,8 +1114,11 @@
       <c r="M4" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,8 +1159,11 @@
       <c r="M5" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1158,8 +1204,11 @@
       <c r="M6" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,8 +1249,11 @@
       <c r="M7" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1242,8 +1294,11 @@
       <c r="M8" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1284,8 +1339,11 @@
       <c r="M9" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1384,11 @@
       <c r="M10" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1368,8 +1429,11 @@
       <c r="M11" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1410,8 +1474,11 @@
       <c r="M12" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1452,8 +1519,11 @@
       <c r="M13" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1494,8 +1564,11 @@
       <c r="M14" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1536,8 +1609,11 @@
       <c r="M15" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1578,8 +1654,11 @@
       <c r="M16" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1620,8 +1699,11 @@
       <c r="M17" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1662,8 +1744,11 @@
       <c r="M18" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1704,8 +1789,11 @@
       <c r="M19" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1746,8 +1834,11 @@
       <c r="M20" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1788,8 +1879,11 @@
       <c r="M21" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1830,8 +1924,11 @@
       <c r="M22" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -1872,8 +1969,11 @@
       <c r="M23" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1914,8 +2014,11 @@
       <c r="M24" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1956,8 +2059,11 @@
       <c r="M25" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1998,13 +2104,16 @@
       <c r="M26" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -2040,13 +2149,16 @@
       <c r="M27" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C28" s="2">
         <v>3.7</v>
@@ -2082,13 +2194,16 @@
       <c r="M28" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2">
         <v>2.4</v>
@@ -2124,13 +2239,16 @@
       <c r="M29" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2">
         <v>150</v>
@@ -2166,13 +2284,16 @@
       <c r="M30" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2">
         <v>45</v>
@@ -2208,13 +2329,16 @@
       <c r="M31" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2">
         <v>11</v>
@@ -2250,13 +2374,16 @@
       <c r="M32" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2">
         <v>11</v>
@@ -2292,13 +2419,16 @@
       <c r="M33" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2">
         <v>9</v>
@@ -2334,13 +2464,16 @@
       <c r="M34" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
@@ -2376,13 +2509,16 @@
       <c r="M35" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2">
         <v>9</v>
@@ -2418,13 +2554,16 @@
       <c r="M36" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2">
         <v>8</v>
@@ -2460,13 +2599,16 @@
       <c r="M37" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2">
         <v>27</v>
@@ -2502,13 +2644,16 @@
       <c r="M38" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2">
         <v>8</v>
@@ -2544,13 +2689,16 @@
       <c r="M39" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2">
         <v>170</v>
@@ -2586,13 +2734,16 @@
       <c r="M40" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2">
         <v>0.9</v>
@@ -2628,13 +2779,16 @@
       <c r="M41" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2">
         <v>0.7</v>
@@ -2670,13 +2824,16 @@
       <c r="M42" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2">
         <v>0.8</v>
@@ -2712,13 +2869,16 @@
       <c r="M43" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2">
         <v>1.1000000000000001</v>
@@ -2754,13 +2914,16 @@
       <c r="M44" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2">
         <v>0.8</v>
@@ -2796,13 +2959,16 @@
       <c r="M45" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2">
         <v>1.1000000000000001</v>
@@ -2838,13 +3004,16 @@
       <c r="M46" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -2880,13 +3049,16 @@
       <c r="M47" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2">
         <v>1.3</v>
@@ -2922,13 +3094,16 @@
       <c r="M48" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2">
         <v>4.5</v>
@@ -2959,13 +3134,16 @@
         <v>1</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M49" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2976,7 +3154,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2987,7 +3165,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2998,7 +3176,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3009,7 +3187,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3020,7 +3198,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3031,7 +3209,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3042,7 +3220,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3053,7 +3231,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3064,7 +3242,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3075,7 +3253,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3086,7 +3264,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3097,7 +3275,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3108,7 +3286,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3119,7 +3297,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
